--- a/predictions полгода до/Прогнозы_GP_Ex_Per.xlsx
+++ b/predictions полгода до/Прогнозы_GP_Ex_Per.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13622327.32408613</v>
+        <v>16804365.01415604</v>
       </c>
       <c r="C2" t="n">
-        <v>13621959.35100526</v>
+        <v>16061666.41468394</v>
       </c>
       <c r="D2" t="n">
-        <v>13621560.68709925</v>
+        <v>15114165.74045492</v>
       </c>
       <c r="E2" t="n">
-        <v>13621172.12809139</v>
+        <v>13911180.34822589</v>
       </c>
       <c r="F2" t="n">
-        <v>13620790.02250773</v>
+        <v>13613048.58724347</v>
       </c>
       <c r="G2" t="n">
-        <v>13620333.72190833</v>
+        <v>13248606.35014236</v>
       </c>
       <c r="H2" t="n">
-        <v>13619964.22703421</v>
+        <v>12159808.82440817</v>
       </c>
       <c r="I2" t="n">
-        <v>13619552.81543517</v>
+        <v>12137541.95243142</v>
       </c>
       <c r="J2" t="n">
-        <v>13619226.91942903</v>
+        <v>12140947.82048581</v>
       </c>
       <c r="K2" t="n">
-        <v>13618854.86174941</v>
+        <v>11118162.15981059</v>
       </c>
       <c r="L2" t="n">
-        <v>13618448.99636543</v>
+        <v>11249566.32676931</v>
       </c>
       <c r="M2" t="n">
-        <v>13617986.40268141</v>
+        <v>11458558.31233249</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6285197.784673674</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6025920.621610593</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5777339.167670612</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5539012.203147789</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5310516.709544399</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5091447.11873418</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4881414.59309909</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4680046.335361888</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4486984.926889537</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4301887.693292914</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4124426.096196828</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3954285.150100768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>859157.3775261064</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>859157.3775261064</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>859157.3775261064</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>859157.3775261064</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>859157.3775261064</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>859157.3775261064</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>859157.3775261064</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>859157.3775261064</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>859157.3775261064</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>859157.3775261064</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>859157.3775261064</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>859157.3775261064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10511855.68562326</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>10511855.68562364</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>10511855.685624</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>10511855.68562436</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>10511855.68562471</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10511855.68562505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>10511855.68562539</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10511855.68562572</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10511855.68562604</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>10511855.68562637</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>10511855.68562668</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>10511855.68562699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4026981.598678405</v>
+        <v>3396799.924200522</v>
       </c>
       <c r="C6" t="n">
-        <v>4026981.58890749</v>
+        <v>3396799.924200522</v>
       </c>
       <c r="D6" t="n">
-        <v>4026981.579510113</v>
+        <v>3396799.924200522</v>
       </c>
       <c r="E6" t="n">
-        <v>4026981.571078577</v>
+        <v>3396799.924200522</v>
       </c>
       <c r="F6" t="n">
-        <v>4026981.564144306</v>
+        <v>3396799.924200522</v>
       </c>
       <c r="G6" t="n">
-        <v>4026981.559144361</v>
+        <v>3396799.924200522</v>
       </c>
       <c r="H6" t="n">
-        <v>4026981.556393875</v>
+        <v>3396799.924200522</v>
       </c>
       <c r="I6" t="n">
-        <v>4026981.556066214</v>
+        <v>3396799.924200522</v>
       </c>
       <c r="J6" t="n">
-        <v>4026981.558182027</v>
+        <v>3396799.924200522</v>
       </c>
       <c r="K6" t="n">
-        <v>4026981.562607956</v>
+        <v>3396799.924200522</v>
       </c>
       <c r="L6" t="n">
-        <v>4026981.569065043</v>
+        <v>3396799.924200522</v>
       </c>
       <c r="M6" t="n">
-        <v>4026981.577146307</v>
+        <v>3396799.924200522</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1699416.648774152</v>
+        <v>2019366.80264572</v>
       </c>
       <c r="C7" t="n">
-        <v>1699416.648812116</v>
+        <v>2377056.766014094</v>
       </c>
       <c r="D7" t="n">
-        <v>1699416.648843317</v>
+        <v>1941901.37464414</v>
       </c>
       <c r="E7" t="n">
-        <v>1699416.648867684</v>
+        <v>2308968.734971042</v>
       </c>
       <c r="F7" t="n">
-        <v>1699416.648885161</v>
+        <v>1849560.249484589</v>
       </c>
       <c r="G7" t="n">
-        <v>1699416.648895706</v>
+        <v>2219772.669122428</v>
       </c>
       <c r="H7" t="n">
-        <v>1699416.648899295</v>
+        <v>1744709.876528031</v>
       </c>
       <c r="I7" t="n">
-        <v>1699416.648895919</v>
+        <v>2112044.04925352</v>
       </c>
       <c r="J7" t="n">
-        <v>1699416.648885586</v>
+        <v>1629946.248851519</v>
       </c>
       <c r="K7" t="n">
-        <v>1699416.64886832</v>
+        <v>1988810.973442049</v>
       </c>
       <c r="L7" t="n">
-        <v>1699416.648844162</v>
+        <v>1507992.79562181</v>
       </c>
       <c r="M7" t="n">
-        <v>1699416.648813169</v>
+        <v>1853414.210507178</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>797920.4561813904</v>
+        <v>15751751.78111835</v>
       </c>
       <c r="C8" t="n">
-        <v>797920.4561813904</v>
+        <v>15729426.79388022</v>
       </c>
       <c r="D8" t="n">
-        <v>797920.4561813904</v>
+        <v>15780604.49420451</v>
       </c>
       <c r="E8" t="n">
-        <v>797920.4561813904</v>
+        <v>15770993.93617061</v>
       </c>
       <c r="F8" t="n">
-        <v>797920.4561813904</v>
+        <v>15751383.117113</v>
       </c>
       <c r="G8" t="n">
-        <v>797920.4561813904</v>
+        <v>15725331.25985064</v>
       </c>
       <c r="H8" t="n">
-        <v>797920.4561813904</v>
+        <v>15686984.10877866</v>
       </c>
       <c r="I8" t="n">
-        <v>797920.4561813904</v>
+        <v>15706442.94412557</v>
       </c>
       <c r="J8" t="n">
-        <v>797920.4561813904</v>
+        <v>15780426.99132368</v>
       </c>
       <c r="K8" t="n">
-        <v>797920.4561813904</v>
+        <v>15620388.9321614</v>
       </c>
       <c r="L8" t="n">
-        <v>797920.4561813904</v>
+        <v>15803451.84631452</v>
       </c>
       <c r="M8" t="n">
-        <v>797920.4561813904</v>
+        <v>15730631.05612608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>687469.5327271968</v>
+        <v>22561024.78255658</v>
       </c>
       <c r="C9" t="n">
-        <v>686377.3138473798</v>
+        <v>19231039.48866336</v>
       </c>
       <c r="D9" t="n">
-        <v>685286.8302329443</v>
+        <v>16765482.87435847</v>
       </c>
       <c r="E9" t="n">
-        <v>684198.0791269857</v>
+        <v>14945265.96323621</v>
       </c>
       <c r="F9" t="n">
-        <v>683111.0577769745</v>
+        <v>13591027.63358095</v>
       </c>
       <c r="G9" t="n">
-        <v>682025.7634347565</v>
+        <v>12589963.25369255</v>
       </c>
       <c r="H9" t="n">
-        <v>680942.1933565419</v>
+        <v>11851188.82774303</v>
       </c>
       <c r="I9" t="n">
-        <v>679860.3448029105</v>
+        <v>11301004.41727632</v>
       </c>
       <c r="J9" t="n">
-        <v>678780.2150387801</v>
+        <v>10897366.62964323</v>
       </c>
       <c r="K9" t="n">
-        <v>677701.80133342</v>
+        <v>10592085.60514345</v>
       </c>
       <c r="L9" t="n">
-        <v>676625.1009604372</v>
+        <v>10373869.61235317</v>
       </c>
       <c r="M9" t="n">
-        <v>675550.1111977678</v>
+        <v>10209357.48415863</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3006562.425500044</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3006562.425500044</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3006562.425500044</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3006562.425500044</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3006562.425500044</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3006562.425500044</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3006562.425500044</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3006562.425500044</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3006562.425500044</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3006562.425500044</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3006562.425500044</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3006562.425500044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1187933.407575037</v>
+        <v>2784308.918473288</v>
       </c>
       <c r="C11" t="n">
-        <v>1295461.305239311</v>
+        <v>2784307.995953485</v>
       </c>
       <c r="D11" t="n">
-        <v>1329235.848847941</v>
+        <v>2784307.073434129</v>
       </c>
       <c r="E11" t="n">
-        <v>1335827.685696573</v>
+        <v>2784306.150915012</v>
       </c>
       <c r="F11" t="n">
-        <v>1339973.017332153</v>
+        <v>2784305.228396162</v>
       </c>
       <c r="G11" t="n">
-        <v>1339496.071803407</v>
+        <v>2784304.305877626</v>
       </c>
       <c r="H11" t="n">
-        <v>1340343.325845637</v>
+        <v>2784303.383359432</v>
       </c>
       <c r="I11" t="n">
-        <v>1340272.041344301</v>
+        <v>2784302.460841447</v>
       </c>
       <c r="J11" t="n">
-        <v>1339887.080327766</v>
+        <v>2784301.538323879</v>
       </c>
       <c r="K11" t="n">
-        <v>1340814.851238971</v>
+        <v>2784300.61580658</v>
       </c>
       <c r="L11" t="n">
-        <v>1339378.760926923</v>
+        <v>2784299.693289712</v>
       </c>
       <c r="M11" t="n">
-        <v>1341316.586150271</v>
+        <v>2784298.770772964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1025580.492832829</v>
+        <v>30923536.95138833</v>
       </c>
       <c r="C12" t="n">
-        <v>1216033.036768849</v>
+        <v>30923536.95138833</v>
       </c>
       <c r="D12" t="n">
-        <v>1326275.657078793</v>
+        <v>30923536.95138833</v>
       </c>
       <c r="E12" t="n">
-        <v>1450490.840434148</v>
+        <v>30923536.95138833</v>
       </c>
       <c r="F12" t="n">
-        <v>1537776.185824488</v>
+        <v>30923536.95138833</v>
       </c>
       <c r="G12" t="n">
-        <v>1537482.73708114</v>
+        <v>30923536.95138833</v>
       </c>
       <c r="H12" t="n">
-        <v>1529393.239381166</v>
+        <v>30923536.95138833</v>
       </c>
       <c r="I12" t="n">
-        <v>1579378.007160266</v>
+        <v>30923536.95138833</v>
       </c>
       <c r="J12" t="n">
-        <v>1618169.076730533</v>
+        <v>30923536.95138833</v>
       </c>
       <c r="K12" t="n">
-        <v>1587100.144217266</v>
+        <v>30923536.95138833</v>
       </c>
       <c r="L12" t="n">
-        <v>1561401.099257681</v>
+        <v>30923536.95138833</v>
       </c>
       <c r="M12" t="n">
-        <v>1600513.135759634</v>
+        <v>30923536.95138833</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>430267.0779406521</v>
+        <v>34081907.66339956</v>
       </c>
       <c r="C13" t="n">
-        <v>429963.5204889905</v>
+        <v>34081907.66339956</v>
       </c>
       <c r="D13" t="n">
-        <v>429660.1771999486</v>
+        <v>34081907.66339956</v>
       </c>
       <c r="E13" t="n">
-        <v>429357.0479224417</v>
+        <v>34081907.66339956</v>
       </c>
       <c r="F13" t="n">
-        <v>429054.1325054765</v>
+        <v>34081907.66339956</v>
       </c>
       <c r="G13" t="n">
-        <v>428751.4307981748</v>
+        <v>34081907.66339956</v>
       </c>
       <c r="H13" t="n">
-        <v>428448.9426497575</v>
+        <v>34081907.66339956</v>
       </c>
       <c r="I13" t="n">
-        <v>428146.6679095645</v>
+        <v>34081907.66339956</v>
       </c>
       <c r="J13" t="n">
-        <v>427844.6064270325</v>
+        <v>34081907.66339956</v>
       </c>
       <c r="K13" t="n">
-        <v>427542.7580517009</v>
+        <v>34081907.66339956</v>
       </c>
       <c r="L13" t="n">
-        <v>427241.1226332262</v>
+        <v>34081907.66339956</v>
       </c>
       <c r="M13" t="n">
-        <v>426939.7000213601</v>
+        <v>34081907.66339956</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>721156.9175232616</v>
+        <v>82688.9952935779</v>
       </c>
       <c r="C14" t="n">
-        <v>721156.9175232616</v>
+        <v>82688.75096118986</v>
       </c>
       <c r="D14" t="n">
-        <v>721156.9175232616</v>
+        <v>82688.50662952429</v>
       </c>
       <c r="E14" t="n">
-        <v>721156.9175232616</v>
+        <v>82688.26229858072</v>
       </c>
       <c r="F14" t="n">
-        <v>721156.9175232616</v>
+        <v>82688.0179683594</v>
       </c>
       <c r="G14" t="n">
-        <v>721156.9175232616</v>
+        <v>82687.77363885916</v>
       </c>
       <c r="H14" t="n">
-        <v>721156.9175232616</v>
+        <v>82687.52931008162</v>
       </c>
       <c r="I14" t="n">
-        <v>721156.9175232616</v>
+        <v>82687.28498202586</v>
       </c>
       <c r="J14" t="n">
-        <v>721156.9175232616</v>
+        <v>82687.04065469257</v>
       </c>
       <c r="K14" t="n">
-        <v>721156.9175232616</v>
+        <v>82686.79632808035</v>
       </c>
       <c r="L14" t="n">
-        <v>721156.9175232616</v>
+        <v>82686.55200219061</v>
       </c>
       <c r="M14" t="n">
-        <v>721156.9175232616</v>
+        <v>82686.30767702241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>420063.4294931369</v>
+        <v>2006679.414725279</v>
       </c>
       <c r="C15" t="n">
-        <v>386889.8962759256</v>
+        <v>1631732.273768795</v>
       </c>
       <c r="D15" t="n">
-        <v>356336.1657571814</v>
+        <v>1402195.813673079</v>
       </c>
       <c r="E15" t="n">
-        <v>328195.345106588</v>
+        <v>1261677.375850433</v>
       </c>
       <c r="F15" t="n">
-        <v>302276.880374334</v>
+        <v>1175654.304135018</v>
       </c>
       <c r="G15" t="n">
-        <v>278405.2661659926</v>
+        <v>1122992.397398653</v>
       </c>
       <c r="H15" t="n">
-        <v>256418.8572178292</v>
+        <v>1090753.646028741</v>
       </c>
       <c r="I15" t="n">
-        <v>236168.7738251877</v>
+        <v>1071017.613775026</v>
       </c>
       <c r="J15" t="n">
-        <v>217517.8937121263</v>
+        <v>1058935.540103797</v>
       </c>
       <c r="K15" t="n">
-        <v>200339.9235158064</v>
+        <v>1051539.093729956</v>
       </c>
       <c r="L15" t="n">
-        <v>184518.5435982438</v>
+        <v>1047011.111162578</v>
       </c>
       <c r="M15" t="n">
-        <v>169946.6203945654</v>
+        <v>1044239.154861646</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>676718.7770107095</v>
+        <v>4254934.688628728</v>
       </c>
       <c r="C16" t="n">
-        <v>556100.9633318151</v>
+        <v>4254934.688628728</v>
       </c>
       <c r="D16" t="n">
-        <v>460030.4822217708</v>
+        <v>4254934.688628728</v>
       </c>
       <c r="E16" t="n">
-        <v>383511.624358155</v>
+        <v>4254934.688628728</v>
       </c>
       <c r="F16" t="n">
-        <v>322565.3738439576</v>
+        <v>4254934.688628728</v>
       </c>
       <c r="G16" t="n">
-        <v>274022.4975459373</v>
+        <v>4254934.688628728</v>
       </c>
       <c r="H16" t="n">
-        <v>235358.7435101416</v>
+        <v>4254934.688628728</v>
       </c>
       <c r="I16" t="n">
-        <v>204563.5786961963</v>
+        <v>4254934.688628728</v>
       </c>
       <c r="J16" t="n">
-        <v>180035.6403320099</v>
+        <v>4254934.688628728</v>
       </c>
       <c r="K16" t="n">
-        <v>160499.4643111272</v>
+        <v>4254934.688628728</v>
       </c>
       <c r="L16" t="n">
-        <v>144939.1604709896</v>
+        <v>4254934.688628728</v>
       </c>
       <c r="M16" t="n">
-        <v>132545.5858359846</v>
+        <v>4254934.688628728</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>556355.6783861595</v>
+        <v>4134360.549832152</v>
       </c>
       <c r="C17" t="n">
-        <v>556355.6783861595</v>
+        <v>3978760.201250652</v>
       </c>
       <c r="D17" t="n">
-        <v>556355.6783861595</v>
+        <v>3829016.010637685</v>
       </c>
       <c r="E17" t="n">
-        <v>556355.6783861595</v>
+        <v>3684907.576262374</v>
       </c>
       <c r="F17" t="n">
-        <v>556355.6783861595</v>
+        <v>3546222.791409658</v>
       </c>
       <c r="G17" t="n">
-        <v>556355.6783861595</v>
+        <v>3412757.532189971</v>
       </c>
       <c r="H17" t="n">
-        <v>556355.6783861595</v>
+        <v>3284315.357098479</v>
       </c>
       <c r="I17" t="n">
-        <v>556355.6783861595</v>
+        <v>3160707.21788168</v>
       </c>
       <c r="J17" t="n">
-        <v>556355.6783861595</v>
+        <v>3041751.181285787</v>
       </c>
       <c r="K17" t="n">
-        <v>556355.6783861595</v>
+        <v>2927272.161277368</v>
       </c>
       <c r="L17" t="n">
-        <v>556355.6783861595</v>
+        <v>2817101.661342096</v>
       </c>
       <c r="M17" t="n">
-        <v>556355.6783861595</v>
+        <v>2711077.526482318</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>914149.3392260503</v>
+        <v>3052195.185044572</v>
       </c>
       <c r="C18" t="n">
-        <v>914149.3392829881</v>
+        <v>2676341.79845132</v>
       </c>
       <c r="D18" t="n">
-        <v>914149.3393336178</v>
+        <v>2455014.12847721</v>
       </c>
       <c r="E18" t="n">
-        <v>914149.3393779218</v>
+        <v>2324693.156396001</v>
       </c>
       <c r="F18" t="n">
-        <v>914149.3394158807</v>
+        <v>2247946.379508688</v>
       </c>
       <c r="G18" t="n">
-        <v>914149.3394474804</v>
+        <v>2202741.131923578</v>
       </c>
       <c r="H18" t="n">
-        <v>914149.3394727089</v>
+        <v>2176128.459235101</v>
       </c>
       <c r="I18" t="n">
-        <v>914149.3394915557</v>
+        <v>2160466.491998913</v>
       </c>
       <c r="J18" t="n">
-        <v>914149.3395040132</v>
+        <v>2151233.868880598</v>
       </c>
       <c r="K18" t="n">
-        <v>914149.3395100778</v>
+        <v>2145790.023432698</v>
       </c>
       <c r="L18" t="n">
-        <v>914149.3395097456</v>
+        <v>2142595.804742376</v>
       </c>
       <c r="M18" t="n">
-        <v>914149.3395030171</v>
+        <v>2140718.967967629</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4811715.581473825</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>4811715.581473825</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4811715.581473825</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>4811715.581473825</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4811715.581473825</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4811715.581473825</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4811715.581473825</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4811715.581473825</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4811715.581473825</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>4811715.581473825</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4811715.581473825</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>4811715.581473825</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2244725.355389474</v>
+        <v>3009991.579997246</v>
       </c>
       <c r="C20" t="n">
-        <v>2244725.630459594</v>
+        <v>729572.5585438872</v>
       </c>
       <c r="D20" t="n">
-        <v>2244725.782173743</v>
+        <v>1213672.256597089</v>
       </c>
       <c r="E20" t="n">
-        <v>2244726.135307574</v>
+        <v>1124185.259964288</v>
       </c>
       <c r="F20" t="n">
-        <v>2244725.78739128</v>
+        <v>504220.899381131</v>
       </c>
       <c r="G20" t="n">
-        <v>2244725.392851318</v>
+        <v>1040859.092489602</v>
       </c>
       <c r="H20" t="n">
-        <v>2244725.825963091</v>
+        <v>1321631.136766923</v>
       </c>
       <c r="I20" t="n">
-        <v>2244725.857992914</v>
+        <v>609752.5233900665</v>
       </c>
       <c r="J20" t="n">
-        <v>2244725.863229845</v>
+        <v>546265.1818613604</v>
       </c>
       <c r="K20" t="n">
-        <v>2244725.955638301</v>
+        <v>-107558.9992930125</v>
       </c>
       <c r="L20" t="n">
-        <v>2244725.949820602</v>
+        <v>218113.5870983186</v>
       </c>
       <c r="M20" t="n">
-        <v>2244725.511598507</v>
+        <v>998884.7397418439</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2747089.387489261</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2747089.387489261</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2747089.387489261</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2747089.387489261</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2747089.387489261</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2747089.387489261</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2747089.387489261</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2747089.387489261</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2747089.387489261</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2747089.387489261</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2747089.387489261</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2747089.387489261</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>339750.3082201824</v>
+        <v>7364698.345198874</v>
       </c>
       <c r="C22" t="n">
-        <v>308660.131781369</v>
+        <v>7364738.136046261</v>
       </c>
       <c r="D22" t="n">
-        <v>287005.1840291541</v>
+        <v>7366105.268332597</v>
       </c>
       <c r="E22" t="n">
-        <v>271922.06724228</v>
+        <v>7365276.487240911</v>
       </c>
       <c r="F22" t="n">
-        <v>261416.3659767011</v>
+        <v>7364387.630705045</v>
       </c>
       <c r="G22" t="n">
-        <v>254098.9288288543</v>
+        <v>7365729.529145551</v>
       </c>
       <c r="H22" t="n">
-        <v>249002.1832562266</v>
+        <v>7365845.105847884</v>
       </c>
       <c r="I22" t="n">
-        <v>245452.1950694822</v>
+        <v>7364436.14441663</v>
       </c>
       <c r="J22" t="n">
-        <v>242979.5552356036</v>
+        <v>7365134.454750948</v>
       </c>
       <c r="K22" t="n">
-        <v>241257.3107022517</v>
+        <v>7366139.63727665</v>
       </c>
       <c r="L22" t="n">
-        <v>240057.731939498</v>
+        <v>7364862.065164663</v>
       </c>
       <c r="M22" t="n">
-        <v>239222.2006428768</v>
+        <v>7364592.781084634</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6800427.352300884</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6800421.442797829</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6800426.565857469</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6800426.777971052</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6800421.419018511</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6800427.166632468</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6800426.133624373</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6800421.534825861</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6800427.682189023</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>6800425.444463035</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6800421.78569033</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>6800428.092362305</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8012030.925773606</v>
+        <v>5540906.017239051</v>
       </c>
       <c r="C24" t="n">
-        <v>8169614.032531882</v>
+        <v>5540772.245799188</v>
       </c>
       <c r="D24" t="n">
-        <v>8221803.802731231</v>
+        <v>5540954.879503064</v>
       </c>
       <c r="E24" t="n">
-        <v>8109874.609260408</v>
+        <v>5541413.183834955</v>
       </c>
       <c r="F24" t="n">
-        <v>7896903.804839531</v>
+        <v>5542044.839733984</v>
       </c>
       <c r="G24" t="n">
-        <v>7687375.670028352</v>
+        <v>5542708.83244696</v>
       </c>
       <c r="H24" t="n">
-        <v>7597251.044308088</v>
+        <v>5543256.991558709</v>
       </c>
       <c r="I24" t="n">
-        <v>7679931.607135806</v>
+        <v>5543567.078092754</v>
       </c>
       <c r="J24" t="n">
-        <v>7852160.521586318</v>
+        <v>5543570.011004028</v>
       </c>
       <c r="K24" t="n">
-        <v>8031108.092602758</v>
+        <v>5543265.196425092</v>
       </c>
       <c r="L24" t="n">
-        <v>8182406.851971802</v>
+        <v>5542720.609224658</v>
       </c>
       <c r="M24" t="n">
-        <v>8217333.221085789</v>
+        <v>5542057.651586838</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4398681.359229494</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4398681.359229494</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4398681.359229494</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4398681.359229494</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4398681.359229494</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4398681.359229494</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4398681.359229494</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4398681.359229494</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4398681.359229494</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4398681.359229494</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>4398681.359229494</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>4398681.359229494</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6382413.655549191</v>
+        <v>7532001.237927654</v>
       </c>
       <c r="C26" t="n">
-        <v>6379012.246072367</v>
+        <v>7532001.237927654</v>
       </c>
       <c r="D26" t="n">
-        <v>6375612.649324521</v>
+        <v>7532001.237927654</v>
       </c>
       <c r="E26" t="n">
-        <v>6372214.864339665</v>
+        <v>7532001.237927654</v>
       </c>
       <c r="F26" t="n">
-        <v>6368818.890152209</v>
+        <v>7532001.237927654</v>
       </c>
       <c r="G26" t="n">
-        <v>6365424.725797117</v>
+        <v>7532001.237927654</v>
       </c>
       <c r="H26" t="n">
-        <v>6362032.370309845</v>
+        <v>7532001.237927654</v>
       </c>
       <c r="I26" t="n">
-        <v>6358641.822726406</v>
+        <v>7532001.237927654</v>
       </c>
       <c r="J26" t="n">
-        <v>6355253.082083292</v>
+        <v>7532001.237927654</v>
       </c>
       <c r="K26" t="n">
-        <v>6351866.147417583</v>
+        <v>7532001.237927654</v>
       </c>
       <c r="L26" t="n">
-        <v>6348481.017766714</v>
+        <v>7532001.237927654</v>
       </c>
       <c r="M26" t="n">
-        <v>6345097.692168795</v>
+        <v>7532001.237927654</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10630680.62475168</v>
+        <v>3001869.356808782</v>
       </c>
       <c r="C27" t="n">
-        <v>8858549.993436616</v>
+        <v>3001869.560920615</v>
       </c>
       <c r="D27" t="n">
-        <v>7827583.659455612</v>
+        <v>3001869.61504384</v>
       </c>
       <c r="E27" t="n">
-        <v>7227801.926088993</v>
+        <v>3001869.639878837</v>
       </c>
       <c r="F27" t="n">
-        <v>6878868.972777938</v>
+        <v>3001869.699842988</v>
       </c>
       <c r="G27" t="n">
-        <v>6675871.450290947</v>
+        <v>3001869.860395476</v>
       </c>
       <c r="H27" t="n">
-        <v>6557774.280777923</v>
+        <v>3001869.592331288</v>
       </c>
       <c r="I27" t="n">
-        <v>6489069.29720906</v>
+        <v>3001869.707235157</v>
       </c>
       <c r="J27" t="n">
-        <v>6449099.035545198</v>
+        <v>3001869.818451248</v>
       </c>
       <c r="K27" t="n">
-        <v>6425845.674078681</v>
+        <v>3001869.477085099</v>
       </c>
       <c r="L27" t="n">
-        <v>6412317.646065257</v>
+        <v>3001869.593064888</v>
       </c>
       <c r="M27" t="n">
-        <v>6404447.491799803</v>
+        <v>3001869.435167933</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3883820.032431096</v>
+        <v>7565910.95755473</v>
       </c>
       <c r="C28" t="n">
-        <v>3874202.862352535</v>
+        <v>7568326.046255171</v>
       </c>
       <c r="D28" t="n">
-        <v>3864609.506446496</v>
+        <v>7566048.596330202</v>
       </c>
       <c r="E28" t="n">
-        <v>3855039.905744009</v>
+        <v>7567664.336605849</v>
       </c>
       <c r="F28" t="n">
-        <v>3845494.001422085</v>
+        <v>7566406.922544557</v>
       </c>
       <c r="G28" t="n">
-        <v>3835971.734803408</v>
+        <v>7567951.892789779</v>
       </c>
       <c r="H28" t="n">
-        <v>3826473.047355972</v>
+        <v>7566477.021758627</v>
       </c>
       <c r="I28" t="n">
-        <v>3816997.880692698</v>
+        <v>7566411.1769515</v>
       </c>
       <c r="J28" t="n">
-        <v>3807546.176571086</v>
+        <v>7566561.098227087</v>
       </c>
       <c r="K28" t="n">
-        <v>3798117.876892872</v>
+        <v>7568016.935077368</v>
       </c>
       <c r="L28" t="n">
-        <v>3788712.923703618</v>
+        <v>7567071.690181857</v>
       </c>
       <c r="M28" t="n">
-        <v>3779331.259192422</v>
+        <v>7567124.671126723</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10577706.22435093</v>
+        <v>1820031.930867024</v>
       </c>
       <c r="C29" t="n">
-        <v>9338406.342059806</v>
+        <v>1683701.341376152</v>
       </c>
       <c r="D29" t="n">
-        <v>8244304.687595345</v>
+        <v>1557582.676915671</v>
       </c>
       <c r="E29" t="n">
-        <v>7278389.619412784</v>
+        <v>1440911.007082095</v>
       </c>
       <c r="F29" t="n">
-        <v>6425642.605335007</v>
+        <v>1332978.699045165</v>
       </c>
       <c r="G29" t="n">
-        <v>5672804.70687795</v>
+        <v>1233131.125638565</v>
       </c>
       <c r="H29" t="n">
-        <v>5008170.422621699</v>
+        <v>1140762.694938692</v>
       </c>
       <c r="I29" t="n">
-        <v>4421405.685200587</v>
+        <v>1055313.17725023</v>
       </c>
       <c r="J29" t="n">
-        <v>3903387.18203814</v>
+        <v>976264.3072210813</v>
       </c>
       <c r="K29" t="n">
-        <v>3446060.501505057</v>
+        <v>903136.6404779248</v>
       </c>
       <c r="L29" t="n">
-        <v>3042314.898885491</v>
+        <v>835486.64571739</v>
       </c>
       <c r="M29" t="n">
-        <v>2685872.734950023</v>
+        <v>772904.0146158896</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30763888.12915312</v>
+        <v>259422.7610021373</v>
       </c>
       <c r="C30" t="n">
-        <v>30763870.90969762</v>
+        <v>259422.7568554059</v>
       </c>
       <c r="D30" t="n">
-        <v>30763851.54670098</v>
+        <v>259422.752708666</v>
       </c>
       <c r="E30" t="n">
-        <v>30763830.24692909</v>
+        <v>259422.7485619267</v>
       </c>
       <c r="F30" t="n">
-        <v>30763807.23782985</v>
+        <v>259422.7444151924</v>
       </c>
       <c r="G30" t="n">
-        <v>30763782.76510444</v>
+        <v>259422.740268453</v>
       </c>
       <c r="H30" t="n">
-        <v>30763757.09008355</v>
+        <v>259422.7361217136</v>
       </c>
       <c r="I30" t="n">
-        <v>30763730.4869367</v>
+        <v>259422.7319749789</v>
       </c>
       <c r="J30" t="n">
-        <v>30763703.23974451</v>
+        <v>259422.7278282377</v>
       </c>
       <c r="K30" t="n">
-        <v>30763675.63946509</v>
+        <v>259422.723681503</v>
       </c>
       <c r="L30" t="n">
-        <v>30763647.98082696</v>
+        <v>259422.7195347641</v>
       </c>
       <c r="M30" t="n">
-        <v>30763620.55918178</v>
+        <v>259422.715388027</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33723166.70821048</v>
+        <v>521393.3784971203</v>
       </c>
       <c r="C31" t="n">
-        <v>33723166.70821048</v>
+        <v>521393.3784971203</v>
       </c>
       <c r="D31" t="n">
-        <v>33723166.70821048</v>
+        <v>521393.3784971203</v>
       </c>
       <c r="E31" t="n">
-        <v>33723166.70821048</v>
+        <v>521393.3784971203</v>
       </c>
       <c r="F31" t="n">
-        <v>33723166.70821048</v>
+        <v>521393.3784971203</v>
       </c>
       <c r="G31" t="n">
-        <v>33723166.70821048</v>
+        <v>521393.3784971203</v>
       </c>
       <c r="H31" t="n">
-        <v>33723166.70821048</v>
+        <v>521393.3784971203</v>
       </c>
       <c r="I31" t="n">
-        <v>33723166.70821048</v>
+        <v>521393.3784971203</v>
       </c>
       <c r="J31" t="n">
-        <v>33723166.70821048</v>
+        <v>521393.3784971203</v>
       </c>
       <c r="K31" t="n">
-        <v>33723166.70821048</v>
+        <v>521393.3784971203</v>
       </c>
       <c r="L31" t="n">
-        <v>33723166.70821048</v>
+        <v>521393.3784971203</v>
       </c>
       <c r="M31" t="n">
-        <v>33723166.70821048</v>
+        <v>521393.3784971203</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>770339.1933473133</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>770339.5569810102</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>770340.0366238907</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>770339.2538594536</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>770339.4582268407</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>770340.0624070226</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>770339.3300833149</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>770339.3658363014</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>770340.066917646</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>770339.4185322952</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>770339.2840354833</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>770340.0499494382</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1912863.071262098</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1845569.685272043</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1781023.178127101</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1719111.402168572</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1659726.789815338</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1602766.166601053</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1548130.571837017</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1495725.086589348</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1445458.668671824</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1397243.994368006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1350997.306607943</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1306638.269336031</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8373159.042513266</v>
+        <v>1941782.699004852</v>
       </c>
       <c r="C34" t="n">
-        <v>8339647.261606205</v>
+        <v>1941750.166077826</v>
       </c>
       <c r="D34" t="n">
-        <v>8306291.903759412</v>
+        <v>1941672.682573724</v>
       </c>
       <c r="E34" t="n">
-        <v>8273092.258243499</v>
+        <v>1941808.614167692</v>
       </c>
       <c r="F34" t="n">
-        <v>8240047.589356663</v>
+        <v>1941704.705651539</v>
       </c>
       <c r="G34" t="n">
-        <v>8207157.159133065</v>
+        <v>1941707.433266026</v>
       </c>
       <c r="H34" t="n">
-        <v>8174420.264501397</v>
+        <v>1941807.700575115</v>
       </c>
       <c r="I34" t="n">
-        <v>8141836.193931499</v>
+        <v>1941671.17304943</v>
       </c>
       <c r="J34" t="n">
-        <v>8109404.214275099</v>
+        <v>1941753.095630211</v>
       </c>
       <c r="K34" t="n">
-        <v>8077123.621376183</v>
+        <v>1941780.299899637</v>
       </c>
       <c r="L34" t="n">
-        <v>8044993.725126434</v>
+        <v>1941662.074038993</v>
       </c>
       <c r="M34" t="n">
-        <v>8013013.807102149</v>
+        <v>1941792.637998376</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3195807.158329312</v>
+        <v>1418642.392656593</v>
       </c>
       <c r="C35" t="n">
-        <v>2748451.658946834</v>
+        <v>1415159.589592119</v>
       </c>
       <c r="D35" t="n">
-        <v>2363717.880122853</v>
+        <v>1411685.336897526</v>
       </c>
       <c r="E35" t="n">
-        <v>2032839.907744055</v>
+        <v>1408219.613581438</v>
       </c>
       <c r="F35" t="n">
-        <v>1748278.897946178</v>
+        <v>1404762.398704017</v>
       </c>
       <c r="G35" t="n">
-        <v>1503551.309358065</v>
+        <v>1401313.671376826</v>
       </c>
       <c r="H35" t="n">
-        <v>1293081.179740893</v>
+        <v>1397873.410762721</v>
       </c>
       <c r="I35" t="n">
-        <v>1112073.081239893</v>
+        <v>1394441.596075698</v>
       </c>
       <c r="J35" t="n">
-        <v>956402.8596148938</v>
+        <v>1391018.206580796</v>
       </c>
       <c r="K35" t="n">
-        <v>822523.6680126315</v>
+        <v>1387603.221593955</v>
       </c>
       <c r="L35" t="n">
-        <v>707385.154320191</v>
+        <v>1384196.620481896</v>
       </c>
       <c r="M35" t="n">
-        <v>608363.9608348826</v>
+        <v>1380798.382661986</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2278387.643704708</v>
+        <v>1038194.570282264</v>
       </c>
       <c r="C36" t="n">
-        <v>2278014.85884079</v>
+        <v>1029912.763680384</v>
       </c>
       <c r="D36" t="n">
-        <v>2277680.088469468</v>
+        <v>1034031.01999713</v>
       </c>
       <c r="E36" t="n">
-        <v>2277388.553845415</v>
+        <v>1033973.128798762</v>
       </c>
       <c r="F36" t="n">
-        <v>2277144.801072241</v>
+        <v>1029750.589254686</v>
       </c>
       <c r="G36" t="n">
-        <v>2276952.637203464</v>
+        <v>1037972.958720634</v>
       </c>
       <c r="H36" t="n">
-        <v>2276815.055889877</v>
+        <v>1026453.733756503</v>
       </c>
       <c r="I36" t="n">
-        <v>2276734.203791309</v>
+        <v>1040891.24542673</v>
       </c>
       <c r="J36" t="n">
-        <v>2276711.347141373</v>
+        <v>1024858.666105324</v>
       </c>
       <c r="K36" t="n">
-        <v>2276746.836375186</v>
+        <v>1041865.532752645</v>
       </c>
       <c r="L36" t="n">
-        <v>2276840.120013407</v>
+        <v>1025211.557502877</v>
       </c>
       <c r="M36" t="n">
-        <v>2276989.751146103</v>
+        <v>1040537.306491667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4869882.420991992</v>
+        <v>3249781.03154772</v>
       </c>
       <c r="C37" t="n">
-        <v>4869882.420991992</v>
+        <v>3249781.03154772</v>
       </c>
       <c r="D37" t="n">
-        <v>4869882.420991992</v>
+        <v>3249781.03154772</v>
       </c>
       <c r="E37" t="n">
-        <v>4869882.420991992</v>
+        <v>3249781.03154772</v>
       </c>
       <c r="F37" t="n">
-        <v>4869882.420991992</v>
+        <v>3249781.03154772</v>
       </c>
       <c r="G37" t="n">
-        <v>4869882.420991992</v>
+        <v>3249781.03154772</v>
       </c>
       <c r="H37" t="n">
-        <v>4869882.420991992</v>
+        <v>3249781.03154772</v>
       </c>
       <c r="I37" t="n">
-        <v>4869882.420991992</v>
+        <v>3249781.03154772</v>
       </c>
       <c r="J37" t="n">
-        <v>4869882.420991992</v>
+        <v>3249781.03154772</v>
       </c>
       <c r="K37" t="n">
-        <v>4869882.420991992</v>
+        <v>3249781.03154772</v>
       </c>
       <c r="L37" t="n">
-        <v>4869882.420991992</v>
+        <v>3249781.03154772</v>
       </c>
       <c r="M37" t="n">
-        <v>4869882.420991992</v>
+        <v>3249781.03154772</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2746456.260884729</v>
+        <v>3472264.11415046</v>
       </c>
       <c r="C38" t="n">
-        <v>2746456.260884729</v>
+        <v>3415930.544877263</v>
       </c>
       <c r="D38" t="n">
-        <v>2746456.260884729</v>
+        <v>3361322.766158747</v>
       </c>
       <c r="E38" t="n">
-        <v>2746456.26088473</v>
+        <v>3308387.908043852</v>
       </c>
       <c r="F38" t="n">
-        <v>2746456.26088473</v>
+        <v>3257074.720263431</v>
       </c>
       <c r="G38" t="n">
-        <v>2746456.26088473</v>
+        <v>3207333.522610923</v>
       </c>
       <c r="H38" t="n">
-        <v>2746456.26088473</v>
+        <v>3159116.156843197</v>
       </c>
       <c r="I38" t="n">
-        <v>2746456.26088473</v>
+        <v>3112375.940054856</v>
       </c>
       <c r="J38" t="n">
-        <v>2746456.26088473</v>
+        <v>3067067.619480984</v>
       </c>
       <c r="K38" t="n">
-        <v>2746456.26088473</v>
+        <v>3023147.32868448</v>
       </c>
       <c r="L38" t="n">
-        <v>2746456.26088473</v>
+        <v>2980572.545085629</v>
       </c>
       <c r="M38" t="n">
-        <v>2746456.26088473</v>
+        <v>2939302.048792752</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2686640.225229172</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>2686499.234229447</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2686940.792825325</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>2687416.000449055</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2687333.914879369</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2686796.226359264</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2686472.160196376</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2686764.472579913</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2687309.538998903</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>2687429.835483037</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>2686975.256194763</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>2686511.483133457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7232369.165387744</v>
+        <v>3522587.427468665</v>
       </c>
       <c r="C40" t="n">
-        <v>7232362.446185561</v>
+        <v>3525969.736670939</v>
       </c>
       <c r="D40" t="n">
-        <v>7232361.883150003</v>
+        <v>3525903.931053672</v>
       </c>
       <c r="E40" t="n">
-        <v>7232362.470191427</v>
+        <v>3522540.998954275</v>
       </c>
       <c r="F40" t="n">
-        <v>7232368.810416743</v>
+        <v>3523575.451808748</v>
       </c>
       <c r="G40" t="n">
-        <v>7232369.848406944</v>
+        <v>3526640.363469992</v>
       </c>
       <c r="H40" t="n">
-        <v>7232367.631389525</v>
+        <v>3524723.023182797</v>
       </c>
       <c r="I40" t="n">
-        <v>7232363.430450741</v>
+        <v>3522210.235579681</v>
       </c>
       <c r="J40" t="n">
-        <v>7232365.223412485</v>
+        <v>3524851.973852052</v>
       </c>
       <c r="K40" t="n">
-        <v>7232361.375112718</v>
+        <v>3526603.192647455</v>
       </c>
       <c r="L40" t="n">
-        <v>7232367.653586218</v>
+        <v>3523457.466881982</v>
       </c>
       <c r="M40" t="n">
-        <v>7232367.15368213</v>
+        <v>3522612.021511251</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7061679.806826133</v>
+        <v>2461399.523318929</v>
       </c>
       <c r="C41" t="n">
-        <v>7061379.775017701</v>
+        <v>2251934.332850622</v>
       </c>
       <c r="D41" t="n">
-        <v>7061080.562651649</v>
+        <v>2128487.775390522</v>
       </c>
       <c r="E41" t="n">
-        <v>7060782.101010662</v>
+        <v>2055733.662969093</v>
       </c>
       <c r="F41" t="n">
-        <v>7060484.309609231</v>
+        <v>2012853.085839443</v>
       </c>
       <c r="G41" t="n">
-        <v>7060187.097490452</v>
+        <v>1987576.764605022</v>
       </c>
       <c r="H41" t="n">
-        <v>7059890.364691216</v>
+        <v>1972674.007343731</v>
       </c>
       <c r="I41" t="n">
-        <v>7059594.003853045</v>
+        <v>1963883.533586915</v>
       </c>
       <c r="J41" t="n">
-        <v>7059297.901951369</v>
+        <v>1958694.039072773</v>
       </c>
       <c r="K41" t="n">
-        <v>7059001.942116886</v>
+        <v>1955625.541400295</v>
       </c>
       <c r="L41" t="n">
-        <v>7058706.005518042</v>
+        <v>1953805.852758264</v>
       </c>
       <c r="M41" t="n">
-        <v>7058409.973276012</v>
+        <v>1952720.980992568</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5452171.210534272</v>
+        <v>2881289.464740087</v>
       </c>
       <c r="C42" t="n">
-        <v>5452171.210534272</v>
+        <v>2881165.061021321</v>
       </c>
       <c r="D42" t="n">
-        <v>5452171.210534272</v>
+        <v>2881607.815603604</v>
       </c>
       <c r="E42" t="n">
-        <v>5452171.210534272</v>
+        <v>2881480.546454683</v>
       </c>
       <c r="F42" t="n">
-        <v>5452171.210534272</v>
+        <v>2881604.008938312</v>
       </c>
       <c r="G42" t="n">
-        <v>5452171.210534272</v>
+        <v>2881839.833283959</v>
       </c>
       <c r="H42" t="n">
-        <v>5452171.210534272</v>
+        <v>2881806.787432343</v>
       </c>
       <c r="I42" t="n">
-        <v>5452171.210534272</v>
+        <v>2881899.193956973</v>
       </c>
       <c r="J42" t="n">
-        <v>5452171.210534272</v>
+        <v>2881666.876776216</v>
       </c>
       <c r="K42" t="n">
-        <v>5452171.210534272</v>
+        <v>2881800.902476217</v>
       </c>
       <c r="L42" t="n">
-        <v>5452171.210534272</v>
+        <v>2881826.429960597</v>
       </c>
       <c r="M42" t="n">
-        <v>5452171.210534272</v>
+        <v>2881860.888232314</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4359997.877051493</v>
+        <v>2552534.5166047</v>
       </c>
       <c r="C43" t="n">
-        <v>4359997.877051493</v>
+        <v>2541846.883725402</v>
       </c>
       <c r="D43" t="n">
-        <v>4359997.877051493</v>
+        <v>2539113.100022032</v>
       </c>
       <c r="E43" t="n">
-        <v>4359997.877051493</v>
+        <v>2550277.515965709</v>
       </c>
       <c r="F43" t="n">
-        <v>4359997.877051493</v>
+        <v>2549423.82427937</v>
       </c>
       <c r="G43" t="n">
-        <v>4359997.877051493</v>
+        <v>2546209.366017062</v>
       </c>
       <c r="H43" t="n">
-        <v>4359997.877051493</v>
+        <v>2548109.768905248</v>
       </c>
       <c r="I43" t="n">
-        <v>4359997.877051493</v>
+        <v>2552033.687497807</v>
       </c>
       <c r="J43" t="n">
-        <v>4359997.877051493</v>
+        <v>2548348.541287887</v>
       </c>
       <c r="K43" t="n">
-        <v>4359997.877051493</v>
+        <v>2541653.900111033</v>
       </c>
       <c r="L43" t="n">
-        <v>4359997.877051493</v>
+        <v>2542895.882065455</v>
       </c>
       <c r="M43" t="n">
-        <v>4359997.877051493</v>
+        <v>2545295.30050481</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7458478.557154734</v>
+        <v>4470799.49299924</v>
       </c>
       <c r="C44" t="n">
-        <v>7458478.557154734</v>
+        <v>4659255.786874495</v>
       </c>
       <c r="D44" t="n">
-        <v>7458478.557154734</v>
+        <v>4494102.507040774</v>
       </c>
       <c r="E44" t="n">
-        <v>7458478.557154734</v>
+        <v>4474010.093201708</v>
       </c>
       <c r="F44" t="n">
-        <v>7458478.557154734</v>
+        <v>4659592.258773219</v>
       </c>
       <c r="G44" t="n">
-        <v>7458478.557154734</v>
+        <v>4490546.80763761</v>
       </c>
       <c r="H44" t="n">
-        <v>7458478.557154734</v>
+        <v>4477300.960860711</v>
       </c>
       <c r="I44" t="n">
-        <v>7458478.557154734</v>
+        <v>4659792.931526058</v>
       </c>
       <c r="J44" t="n">
-        <v>7458478.557154734</v>
+        <v>4487049.086050095</v>
       </c>
       <c r="K44" t="n">
-        <v>7458478.557154734</v>
+        <v>4480668.33015054</v>
       </c>
       <c r="L44" t="n">
-        <v>7458478.557154734</v>
+        <v>4659857.707033236</v>
       </c>
       <c r="M44" t="n">
-        <v>7458478.557154734</v>
+        <v>4483613.218622339</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2927467.256921537</v>
+        <v>2419546.443624096</v>
       </c>
       <c r="C45" t="n">
-        <v>2927467.256921561</v>
+        <v>2378116.808286672</v>
       </c>
       <c r="D45" t="n">
-        <v>2927467.256921586</v>
+        <v>2330778.822811143</v>
       </c>
       <c r="E45" t="n">
-        <v>2927467.256921608</v>
+        <v>2277682.031135234</v>
       </c>
       <c r="F45" t="n">
-        <v>2927467.256921631</v>
+        <v>2219061.06433979</v>
       </c>
       <c r="G45" t="n">
-        <v>2927467.256921652</v>
+        <v>2155230.436928716</v>
       </c>
       <c r="H45" t="n">
-        <v>2927467.256921672</v>
+        <v>2086577.621321762</v>
       </c>
       <c r="I45" t="n">
-        <v>2927467.256921694</v>
+        <v>2013554.651864046</v>
       </c>
       <c r="J45" t="n">
-        <v>2927467.256921714</v>
+        <v>1936668.540345671</v>
       </c>
       <c r="K45" t="n">
-        <v>2927467.25692173</v>
+        <v>1856470.805134336</v>
       </c>
       <c r="L45" t="n">
-        <v>2927467.25692175</v>
+        <v>1773546.425462462</v>
       </c>
       <c r="M45" t="n">
-        <v>2927467.256921767</v>
+        <v>1688502.531487714</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7339049.568663258</v>
+        <v>2036317.272910831</v>
       </c>
       <c r="C46" t="n">
-        <v>7446729.422230206</v>
+        <v>2036217.990602518</v>
       </c>
       <c r="D46" t="n">
-        <v>7644966.88419288</v>
+        <v>2036118.958600866</v>
       </c>
       <c r="E46" t="n">
-        <v>7511989.395028627</v>
+        <v>2036020.805779069</v>
       </c>
       <c r="F46" t="n">
-        <v>7330849.457496269</v>
+        <v>2035924.155396549</v>
       </c>
       <c r="G46" t="n">
-        <v>7520898.28581474</v>
+        <v>2035829.621150751</v>
       </c>
       <c r="H46" t="n">
-        <v>7654320.172005814</v>
+        <v>2035737.803290065</v>
       </c>
       <c r="I46" t="n">
-        <v>7413060.14561577</v>
+        <v>2035649.284812226</v>
       </c>
       <c r="J46" t="n">
-        <v>7370233.684806015</v>
+        <v>2035564.627772062</v>
       </c>
       <c r="K46" t="n">
-        <v>7589388.776228825</v>
+        <v>2035484.369721693</v>
       </c>
       <c r="L46" t="n">
-        <v>7612358.323270697</v>
+        <v>2035409.020305533</v>
       </c>
       <c r="M46" t="n">
-        <v>7344549.739797289</v>
+        <v>2035339.058031428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1323959.44372392</v>
+        <v>520718.032206472</v>
       </c>
       <c r="C47" t="n">
-        <v>911304.2961914977</v>
+        <v>520717.7849133424</v>
       </c>
       <c r="D47" t="n">
-        <v>627266.5859923852</v>
+        <v>520717.5376203544</v>
       </c>
       <c r="E47" t="n">
-        <v>431758.493345083</v>
+        <v>520717.2903274894</v>
       </c>
       <c r="F47" t="n">
-        <v>297186.8751476571</v>
+        <v>520717.0430347435</v>
       </c>
       <c r="G47" t="n">
-        <v>204558.8914204389</v>
+        <v>520716.7957420796</v>
       </c>
       <c r="H47" t="n">
-        <v>140801.4403003786</v>
+        <v>520716.5484495759</v>
       </c>
       <c r="I47" t="n">
-        <v>96916.07855809988</v>
+        <v>520716.3011571467</v>
       </c>
       <c r="J47" t="n">
-        <v>66709.02132138581</v>
+        <v>520716.0538648739</v>
       </c>
       <c r="K47" t="n">
-        <v>45916.9788116152</v>
+        <v>520715.8065727055</v>
       </c>
       <c r="L47" t="n">
-        <v>31605.45457605763</v>
+        <v>520715.5592806637</v>
       </c>
       <c r="M47" t="n">
-        <v>21754.5837032849</v>
+        <v>520715.3119887225</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>334328.3591771324</v>
+        <v>4279202.840264794</v>
       </c>
       <c r="C48" t="n">
-        <v>306186.5019994178</v>
+        <v>3435406.020659236</v>
       </c>
       <c r="D48" t="n">
-        <v>202755.1639963247</v>
+        <v>2631925.158947475</v>
       </c>
       <c r="E48" t="n">
-        <v>220546.5160685777</v>
+        <v>2779872.613169993</v>
       </c>
       <c r="F48" t="n">
-        <v>146583.8220933832</v>
+        <v>2455610.612202869</v>
       </c>
       <c r="G48" t="n">
-        <v>184128.065246713</v>
+        <v>2019407.330122195</v>
       </c>
       <c r="H48" t="n">
-        <v>122551.9358559186</v>
+        <v>2261815.231875039</v>
       </c>
       <c r="I48" t="n">
-        <v>168683.1014651274</v>
+        <v>2465320.107619885</v>
       </c>
       <c r="J48" t="n">
-        <v>112215.1874247526</v>
+        <v>2037664.725230661</v>
       </c>
       <c r="K48" t="n">
-        <v>162168.4146045499</v>
+        <v>2119817.636103927</v>
       </c>
       <c r="L48" t="n">
-        <v>107710.1209445618</v>
+        <v>2130981.689950573</v>
       </c>
       <c r="M48" t="n">
-        <v>159449.5170732978</v>
+        <v>2312966.952641425</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>523808.6545140602</v>
+        <v>540052.6941106886</v>
       </c>
       <c r="C49" t="n">
-        <v>523808.6545140602</v>
+        <v>508403.8094834046</v>
       </c>
       <c r="D49" t="n">
-        <v>523808.6545140602</v>
+        <v>478993.876019245</v>
       </c>
       <c r="E49" t="n">
-        <v>523808.6545140602</v>
+        <v>451664.5025973244</v>
       </c>
       <c r="F49" t="n">
-        <v>523808.6545140602</v>
+        <v>426268.5032304784</v>
       </c>
       <c r="G49" t="n">
-        <v>523808.6545140602</v>
+        <v>402669.1043754887</v>
       </c>
       <c r="H49" t="n">
-        <v>523808.6545140602</v>
+        <v>380739.2083209174</v>
       </c>
       <c r="I49" t="n">
-        <v>523808.6545140602</v>
+        <v>360360.7086854223</v>
       </c>
       <c r="J49" t="n">
-        <v>523808.6545140602</v>
+        <v>341423.8543400816</v>
       </c>
       <c r="K49" t="n">
-        <v>523808.6545140602</v>
+        <v>323826.6583290445</v>
       </c>
       <c r="L49" t="n">
-        <v>523808.6545140602</v>
+        <v>307474.3486051725</v>
       </c>
       <c r="M49" t="n">
-        <v>523808.6545140602</v>
+        <v>292278.8576225333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1229895.996471372</v>
+        <v>887110.4572140835</v>
       </c>
       <c r="C50" t="n">
-        <v>1229001.803092762</v>
+        <v>887110.4077900052</v>
       </c>
       <c r="D50" t="n">
-        <v>1228108.259835645</v>
+        <v>887110.3583659083</v>
       </c>
       <c r="E50" t="n">
-        <v>1227215.366227319</v>
+        <v>887110.3089418113</v>
       </c>
       <c r="F50" t="n">
-        <v>1226323.121795475</v>
+        <v>887110.2595177293</v>
       </c>
       <c r="G50" t="n">
-        <v>1225431.52606813</v>
+        <v>887110.2100936547</v>
       </c>
       <c r="H50" t="n">
-        <v>1224540.57857364</v>
+        <v>887110.160669554</v>
       </c>
       <c r="I50" t="n">
-        <v>1223650.278840717</v>
+        <v>887110.1112454869</v>
       </c>
       <c r="J50" t="n">
-        <v>1222760.626398392</v>
+        <v>887110.0618214011</v>
       </c>
       <c r="K50" t="n">
-        <v>1221871.620776067</v>
+        <v>887110.0123973377</v>
       </c>
       <c r="L50" t="n">
-        <v>1220983.261503467</v>
+        <v>887109.9629732482</v>
       </c>
       <c r="M50" t="n">
-        <v>1220095.54811067</v>
+        <v>887109.913549196</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>345734.2407192438</v>
+        <v>1402429.53188869</v>
       </c>
       <c r="C51" t="n">
-        <v>345734.2382439607</v>
+        <v>1595379.602140054</v>
       </c>
       <c r="D51" t="n">
-        <v>345734.2356098524</v>
+        <v>1766095.992187593</v>
       </c>
       <c r="E51" t="n">
-        <v>345734.2328342295</v>
+        <v>1860034.081358522</v>
       </c>
       <c r="F51" t="n">
-        <v>345734.2299353325</v>
+        <v>1886401.401548203</v>
       </c>
       <c r="G51" t="n">
-        <v>345734.2269322118</v>
+        <v>1766680.957393609</v>
       </c>
       <c r="H51" t="n">
-        <v>345734.2238446028</v>
+        <v>1729089.224040467</v>
       </c>
       <c r="I51" t="n">
-        <v>345734.2206927963</v>
+        <v>1094104.939646378</v>
       </c>
       <c r="J51" t="n">
-        <v>345734.2174975048</v>
+        <v>1123668.44433653</v>
       </c>
       <c r="K51" t="n">
-        <v>345734.2142797266</v>
+        <v>1149379.50708786</v>
       </c>
       <c r="L51" t="n">
-        <v>345734.2110606078</v>
+        <v>1159538.914702442</v>
       </c>
       <c r="M51" t="n">
-        <v>345734.2078613034</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2079200.501521205</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1883927.93277036</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1706994.805587874</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1546678.732035747</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1401419.085928529</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1269801.810631842</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1150545.653669038</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1042489.694134256</v>
-      </c>
-      <c r="J52" t="n">
-        <v>944582.0414952044</v>
-      </c>
-      <c r="K52" t="n">
-        <v>855869.5957720833</v>
-      </c>
-      <c r="L52" t="n">
-        <v>775488.7694112362</v>
-      </c>
-      <c r="M52" t="n">
-        <v>702657.0805339143</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1239233.137085029</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1189201.928492292</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1141505.149936522</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1096033.892680585</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1052684.357514706</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1011357.451384515</v>
-      </c>
-      <c r="H53" t="n">
-        <v>971958.8098051144</v>
-      </c>
-      <c r="I53" t="n">
-        <v>934398.4934409466</v>
-      </c>
-      <c r="J53" t="n">
-        <v>898590.7137747864</v>
-      </c>
-      <c r="K53" t="n">
-        <v>864453.7461116994</v>
-      </c>
-      <c r="L53" t="n">
-        <v>831909.5358800879</v>
-      </c>
-      <c r="M53" t="n">
-        <v>800883.7811828193</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1021783.056741654</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1021783.056741654</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1021783.056741654</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1021783.056741654</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1021783.056741654</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1021783.056741654</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1021783.056741654</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1021783.056741654</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1021783.056741654</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1021783.056741654</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1021783.056741654</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1021783.056741654</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3042387.462350843</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3068854.589062983</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3079328.751914535</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3083473.820879533</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3085114.198252687</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3085763.361861016</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3086020.258929856</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3086121.918226745</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3086162.142071618</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3086178.052019607</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3086184.338650061</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3086186.815657405</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3314163.860677985</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3082586.528956456</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2896986.060116048</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2747839.109086954</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2628400.207553656</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2532324.920374228</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2455478.718115482</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2393576.194032486</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2344146.116291777</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2304251.413575393</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2272464.262022383</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2246747.509394451</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3257443.889544351</v>
-      </c>
-      <c r="C57" t="n">
-        <v>3002469.648122475</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2671115.336646249</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2722775.914535238</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2964169.223069209</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2185694.156641745</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2344867.685157971</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2421391.025941178</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2525177.688419037</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2887521.154647096</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2289976.990853959</v>
-      </c>
-      <c r="M57" t="n">
-        <v>2342053.669585398</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>3575253.41960679</v>
-      </c>
-      <c r="C58" t="n">
-        <v>3575242.316322163</v>
-      </c>
-      <c r="D58" t="n">
-        <v>3575231.211912543</v>
-      </c>
-      <c r="E58" t="n">
-        <v>3575220.106404364</v>
-      </c>
-      <c r="F58" t="n">
-        <v>3575209.001358449</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3575197.898064509</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3575186.793633431</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3575175.690536141</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3575164.584254056</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3575153.480273485</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3575142.375683442</v>
-      </c>
-      <c r="M58" t="n">
-        <v>3575131.271432132</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2153396.681345609</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2062132.800489442</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2052111.455740602</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2051010.803260533</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2050889.850398971</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2050876.73580772</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2050875.467340255</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2050875.43272489</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2050875.245364392</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2050875.280208232</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2050875.233701849</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2050875.385221087</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2804541.018940811</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2804541.018940811</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2804541.018940811</v>
-      </c>
-      <c r="E60" t="n">
-        <v>2804541.018940811</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2804541.018940811</v>
-      </c>
-      <c r="G60" t="n">
-        <v>2804541.018940811</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2804541.018940811</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2804541.018940811</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2804541.018940811</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2804541.018940811</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2804541.018940811</v>
-      </c>
-      <c r="M60" t="n">
-        <v>2804541.018940811</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2506843.187106532</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2506843.187106532</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2506843.187106532</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2506843.187106532</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2506843.187106532</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2506843.187106532</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2506843.187106532</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2506843.187106532</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2506843.187106532</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2506843.187106532</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2506843.187106532</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2506843.187106532</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4523268.503979415</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4523268.503979415</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4523268.503979415</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4523268.503979415</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4523268.503979415</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4523268.503979415</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4523268.503979415</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4523268.503979415</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4523268.503979415</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4523268.503979415</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4523268.503979415</v>
-      </c>
-      <c r="M62" t="n">
-        <v>4523268.503979415</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2251410.862575555</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2251409.158334326</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2251416.096452679</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2251408.351058641</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2251408.790100578</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2251410.398496346</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2251418.182162771</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2251408.781579261</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2251408.902232226</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2251410.850288969</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2251408.775658236</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2251416.630833483</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1930399.050697843</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1959690.787006562</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2145712.325644204</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2051739.166105073</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1883325.496624611</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2069001.841284306</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2126355.272393754</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1964388.935878948</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1923543.851379512</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2138703.37326993</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2078315.934814963</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1892320.08723883</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>884578.0069142394</v>
-      </c>
-      <c r="C65" t="n">
-        <v>884288.3288226053</v>
-      </c>
-      <c r="D65" t="n">
-        <v>883998.7455935888</v>
-      </c>
-      <c r="E65" t="n">
-        <v>883709.2571961433</v>
-      </c>
-      <c r="F65" t="n">
-        <v>883419.8635992147</v>
-      </c>
-      <c r="G65" t="n">
-        <v>883130.5647717491</v>
-      </c>
-      <c r="H65" t="n">
-        <v>882841.3606827147</v>
-      </c>
-      <c r="I65" t="n">
-        <v>882552.25130108</v>
-      </c>
-      <c r="J65" t="n">
-        <v>882263.2365958318</v>
-      </c>
-      <c r="K65" t="n">
-        <v>881974.3165359795</v>
-      </c>
-      <c r="L65" t="n">
-        <v>881685.4910905175</v>
-      </c>
-      <c r="M65" t="n">
-        <v>881396.7602284811</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>3478822.023066059</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3478152.257488832</v>
-      </c>
-      <c r="D66" t="n">
-        <v>3477502.035558343</v>
-      </c>
-      <c r="E66" t="n">
-        <v>3476877.506059989</v>
-      </c>
-      <c r="F66" t="n">
-        <v>3476350.979004756</v>
-      </c>
-      <c r="G66" t="n">
-        <v>3475748.358686119</v>
-      </c>
-      <c r="H66" t="n">
-        <v>3475166.639392033</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3474545.873897046</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3474204.219877541</v>
-      </c>
-      <c r="K66" t="n">
-        <v>3473832.848854601</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3473159.03739208</v>
-      </c>
-      <c r="M66" t="n">
-        <v>3472579.170113385</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>572845.0103058908</v>
-      </c>
-      <c r="C67" t="n">
-        <v>558421.0885420511</v>
-      </c>
-      <c r="D67" t="n">
-        <v>543188.4138391169</v>
-      </c>
-      <c r="E67" t="n">
-        <v>478515.8939858157</v>
-      </c>
-      <c r="F67" t="n">
-        <v>497253.0802469928</v>
-      </c>
-      <c r="G67" t="n">
-        <v>481806.4787404985</v>
-      </c>
-      <c r="H67" t="n">
-        <v>439998.7554596135</v>
-      </c>
-      <c r="I67" t="n">
-        <v>473318.3512587103</v>
-      </c>
-      <c r="J67" t="n">
-        <v>496431.8645943795</v>
-      </c>
-      <c r="K67" t="n">
-        <v>481641.7601364359</v>
-      </c>
-      <c r="L67" t="n">
-        <v>443795.8190455114</v>
-      </c>
-      <c r="M67" t="n">
-        <v>421928.3995073425</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1086085.090766445</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1085984.947349042</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1086061.143120103</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1085646.297223128</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1085805.333203983</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1085574.601660211</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1085365.185478911</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1085514.454796638</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1085097.045621172</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1085190.234932553</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1085066.773880791</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1084767.8072781</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>777191.0359027646</v>
-      </c>
-      <c r="C69" t="n">
-        <v>777190.9522559196</v>
-      </c>
-      <c r="D69" t="n">
-        <v>777190.868609108</v>
-      </c>
-      <c r="E69" t="n">
-        <v>777190.7849622853</v>
-      </c>
-      <c r="F69" t="n">
-        <v>777190.7013154812</v>
-      </c>
-      <c r="G69" t="n">
-        <v>777190.6176686771</v>
-      </c>
-      <c r="H69" t="n">
-        <v>777190.5340218805</v>
-      </c>
-      <c r="I69" t="n">
-        <v>777190.4503751136</v>
-      </c>
-      <c r="J69" t="n">
-        <v>777190.3667283282</v>
-      </c>
-      <c r="K69" t="n">
-        <v>777190.2830815576</v>
-      </c>
-      <c r="L69" t="n">
-        <v>777190.1994348243</v>
-      </c>
-      <c r="M69" t="n">
-        <v>777190.11578805</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>5110004.432752228</v>
-      </c>
-      <c r="C70" t="n">
-        <v>4288271.299616916</v>
-      </c>
-      <c r="D70" t="n">
-        <v>3638939.616895154</v>
-      </c>
-      <c r="E70" t="n">
-        <v>3151842.598204871</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2746640.935173369</v>
-      </c>
-      <c r="G70" t="n">
-        <v>2358169.161383409</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2003796.917009009</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1740929.177736953</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1575231.34273806</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1438753.394516162</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1273943.05111518</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1103758.280969686</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>10175909.54302576</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10175909.54034907</v>
-      </c>
-      <c r="D71" t="n">
-        <v>10175909.54535462</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10175909.54431947</v>
-      </c>
-      <c r="F71" t="n">
-        <v>10175909.54008153</v>
-      </c>
-      <c r="G71" t="n">
-        <v>10175909.5442593</v>
-      </c>
-      <c r="H71" t="n">
-        <v>10175909.54539924</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10175909.54037615</v>
-      </c>
-      <c r="J71" t="n">
-        <v>10175909.54296105</v>
-      </c>
-      <c r="K71" t="n">
-        <v>10175909.54606732</v>
-      </c>
-      <c r="L71" t="n">
-        <v>10175909.54117899</v>
-      </c>
-      <c r="M71" t="n">
-        <v>10175909.54169763</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3523688.396655606</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3523688.395863927</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3523688.39507224</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3523688.394280558</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3523688.393488875</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3523688.392697188</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3523688.391905517</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3523688.39111382</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3523688.390322144</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3523688.389530445</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3523688.388738774</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3523688.387947095</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>1652144.275023585</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1652144.275023585</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1652144.275023585</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1652144.275023585</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1652144.275023585</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1652144.275023585</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1652144.275023585</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1652144.275023585</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1652144.275023585</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1652144.275023585</v>
-      </c>
-      <c r="L73" t="n">
-        <v>1652144.275023585</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1652144.275023585</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>15594887.32311776</v>
-      </c>
-      <c r="C74" t="n">
-        <v>15594887.32311777</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15594887.32311776</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15594887.32311776</v>
-      </c>
-      <c r="F74" t="n">
-        <v>15594887.32311776</v>
-      </c>
-      <c r="G74" t="n">
-        <v>15594887.32311776</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15594887.32311776</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15594887.32311776</v>
-      </c>
-      <c r="J74" t="n">
-        <v>15594887.32311776</v>
-      </c>
-      <c r="K74" t="n">
-        <v>15594887.32311776</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15594887.32311776</v>
-      </c>
-      <c r="M74" t="n">
-        <v>15594887.32311776</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>20828001.09406507</v>
-      </c>
-      <c r="C75" t="n">
-        <v>20602295.17749935</v>
-      </c>
-      <c r="D75" t="n">
-        <v>20379035.1586721</v>
-      </c>
-      <c r="E75" t="n">
-        <v>20158194.53222698</v>
-      </c>
-      <c r="F75" t="n">
-        <v>19939747.0800371</v>
-      </c>
-      <c r="G75" t="n">
-        <v>19723666.86809247</v>
-      </c>
-      <c r="H75" t="n">
-        <v>19509928.24342109</v>
-      </c>
-      <c r="I75" t="n">
-        <v>19298505.83104337</v>
-      </c>
-      <c r="J75" t="n">
-        <v>19089374.53095977</v>
-      </c>
-      <c r="K75" t="n">
-        <v>18882509.51517079</v>
-      </c>
-      <c r="L75" t="n">
-        <v>18677886.22472949</v>
-      </c>
-      <c r="M75" t="n">
-        <v>18475480.36682582</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>3883820.032431096</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3874202.862352535</v>
-      </c>
-      <c r="D76" t="n">
-        <v>3864609.506446496</v>
-      </c>
-      <c r="E76" t="n">
-        <v>3855039.905744009</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3845494.001422085</v>
-      </c>
-      <c r="G76" t="n">
-        <v>3835971.734803408</v>
-      </c>
-      <c r="H76" t="n">
-        <v>3826473.047355972</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3816997.880692698</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3807546.176571086</v>
-      </c>
-      <c r="K76" t="n">
-        <v>3798117.876892872</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3788712.923703618</v>
-      </c>
-      <c r="M76" t="n">
-        <v>3779331.259192422</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>2470658.416738257</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2470657.219749093</v>
-      </c>
-      <c r="D77" t="n">
-        <v>2470656.022760451</v>
-      </c>
-      <c r="E77" t="n">
-        <v>2470654.825772449</v>
-      </c>
-      <c r="F77" t="n">
-        <v>2470653.628784984</v>
-      </c>
-      <c r="G77" t="n">
-        <v>2470652.43179813</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2470651.234811917</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2470650.03782618</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2470648.840841115</v>
-      </c>
-      <c r="K77" t="n">
-        <v>2470647.643856511</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2470646.446872562</v>
-      </c>
-      <c r="M77" t="n">
-        <v>2470645.249889255</v>
+        <v>1163696.249594212</v>
       </c>
     </row>
   </sheetData>
